--- a/data/european_inflation_rates_data.xlsx
+++ b/data/european_inflation_rates_data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1844,7 +1844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2DA5ADF-86AA-4513-A1E8-185AB2ED51CC}">
   <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -2509,9 +2509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD60219-6780-4A9A-ACA2-4776F73AC570}">
   <dimension ref="A1:O350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="C270" sqref="C246:C270"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5737,7 +5735,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="C189" s="2">
-        <f t="shared" ref="C189:C252" si="6">C190/(1+B190/12)</f>
+        <f t="shared" ref="C189:C244" si="6">C190/(1+B190/12)</f>
         <v>0.95094245300886115</v>
       </c>
       <c r="D189" s="2">
